--- a/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3DDB36-7C15-43B4-84E1-1870F1F60F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B33AC6B-60F8-49CF-A93D-3A92F9A533C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F75E0BD-368C-4C97-83AD-CA56BF1E93C9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4C3D303-1573-47EE-96EA-BD1240F6DE51}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="166">
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2012 (Tasa respuesta: 1,71%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>58,42%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -130,19 +130,19 @@
     <t>31,74%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -154,13 +154,13 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>83,39%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -172,13 +172,13 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>17,23%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>82,88%</t>
+    <t>82,77%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -187,19 +187,19 @@
     <t>27,42%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -208,37 +208,37 @@
     <t>59,15%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -250,67 +250,67 @@
     <t>59,17%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>44,42%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>37,14%</t>
+    <t>29,33%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>62,86%</t>
+    <t>70,67%</t>
   </si>
   <si>
     <t>47,07%</t>
@@ -340,64 +340,64 @@
     <t>34,16%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>31,31%</t>
@@ -421,115 +421,121 @@
     <t>27,32%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>25,31%</t>
+    <t>25,4%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>74,69%</t>
+    <t>74,6%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>71,57%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>76,43%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
 </sst>
 </file>
@@ -941,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F4D72-4814-4CEC-B307-F4B22873A6FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4CB86A-51F5-4020-B975-72ECD70F979F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2406,7 +2412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CFDA80-1C98-41E5-97D8-BAC47B1084F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8873AA0C-F99F-4883-99AC-F845487ED683}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB7804-7B6C-4054-A1D9-BC6B55D7F14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74289202-7ACC-4635-9008-144016D6D1F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,10 +5208,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5230,10 +5236,10 @@
         <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5254,13 @@
         <v>157381</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5276,13 +5282,13 @@
         <v>157381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B33AC6B-60F8-49CF-A93D-3A92F9A533C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6482759A-499E-435E-99CD-78604AED76A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4C3D303-1573-47EE-96EA-BD1240F6DE51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{015A9B39-3427-4914-90B0-CF4C73273969}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="164">
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2012 (Tasa respuesta: 1,71%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>58,42%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,7 +109,7 @@
     <t>66,87%</t>
   </si>
   <si>
-    <t>20,02%</t>
+    <t>17,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -121,7 +121,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,98%</t>
+    <t>82,83%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>31,74%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>68,26%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,13 @@
     <t>48,78%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>85,01%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -187,19 +181,19 @@
     <t>27,42%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -208,109 +202,109 @@
     <t>59,15%</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastornos de próstata le limita en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población cuyo trastornos de próstata le limita en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>59,17%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>44,42%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>55,58%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>29,33%</t>
+    <t>31,08%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>70,67%</t>
+    <t>68,92%</t>
   </si>
   <si>
     <t>47,07%</t>
@@ -328,67 +322,67 @@
     <t>80,92%</t>
   </si>
   <si>
-    <t>27,53%</t>
+    <t>30,33%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>72,47%</t>
+    <t>69,67%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -947,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4CB86A-51F5-4020-B975-72ECD70F979F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B135F963-2213-4454-944B-34CF60656FFA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1661,7 +1655,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1689,7 +1683,7 @@
         <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1698,13 @@
         <v>3347</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1732,13 +1726,13 @@
         <v>3347</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,7 +1786,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1804,10 +1798,10 @@
         <v>4209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
@@ -1832,10 +1826,10 @@
         <v>4209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>24</v>
@@ -1853,13 +1847,13 @@
         <v>2046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1881,13 +1875,13 @@
         <v>2046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1935,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1953,13 +1947,13 @@
         <v>7174</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1981,13 +1975,13 @@
         <v>7174</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +1996,13 @@
         <v>18985</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2030,13 +2024,13 @@
         <v>18985</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2084,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2102,13 +2096,13 @@
         <v>20110</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2130,13 +2124,13 @@
         <v>20110</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2145,13 @@
         <v>13890</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2179,13 +2173,13 @@
         <v>13890</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2245,13 @@
         <v>57514</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2279,13 +2273,13 @@
         <v>57514</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2294,13 @@
         <v>65844</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2328,13 +2322,13 @@
         <v>65844</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2382,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8873AA0C-F99F-4883-99AC-F845487ED683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2029DE2-77D1-4587-BA4B-1578B1CD4946}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2429,7 +2423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2536,13 +2530,13 @@
         <v>10128</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2564,13 +2558,13 @@
         <v>10128</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2579,13 @@
         <v>6988</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2613,13 +2607,13 @@
         <v>6988</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2679,13 @@
         <v>4608</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2713,13 +2707,13 @@
         <v>4608</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2728,13 @@
         <v>5767</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2762,13 +2756,13 @@
         <v>5767</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2828,13 @@
         <v>5537</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2862,13 +2856,13 @@
         <v>5537</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2877,13 @@
         <v>10562</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2911,13 +2905,13 @@
         <v>10562</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2977,13 @@
         <v>901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3011,13 +3005,13 @@
         <v>901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +3026,10 @@
         <v>11748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -3060,10 +3054,10 @@
         <v>11748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -3132,13 +3126,13 @@
         <v>2530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3160,13 +3154,13 @@
         <v>2530</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +3175,10 @@
         <v>2845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -3209,10 +3203,10 @@
         <v>2845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -3269,7 +3263,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3281,10 +3275,10 @@
         <v>4392</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
@@ -3309,10 +3303,10 @@
         <v>4392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>24</v>
@@ -3330,13 +3324,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3358,13 +3352,13 @@
         <v>1035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3412,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3424,13 @@
         <v>6787</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3458,13 +3452,13 @@
         <v>6787</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3473,13 @@
         <v>13079</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3507,13 +3501,13 @@
         <v>13079</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3561,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3573,13 @@
         <v>2851</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3607,13 +3601,13 @@
         <v>2851</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3622,13 @@
         <v>19244</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3656,13 +3650,13 @@
         <v>19244</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3722,13 @@
         <v>37734</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3756,13 +3750,13 @@
         <v>37734</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3771,13 @@
         <v>71268</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3805,13 +3799,13 @@
         <v>71268</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3859,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74289202-7ACC-4635-9008-144016D6D1F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D397CF-FA00-4793-8AE9-0C1A11B893A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3906,7 +3900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4013,13 +4007,13 @@
         <v>774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4041,13 +4035,13 @@
         <v>774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +4056,10 @@
         <v>10085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4090,10 +4084,10 @@
         <v>10085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -4162,13 +4156,13 @@
         <v>3583</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4190,13 +4184,13 @@
         <v>3583</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>7861</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4239,13 +4233,13 @@
         <v>7861</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4305,13 @@
         <v>7008</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4339,13 +4333,13 @@
         <v>7008</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4354,13 @@
         <v>18647</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4388,13 +4382,13 @@
         <v>18647</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4454,13 @@
         <v>1575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4488,13 +4482,13 @@
         <v>1575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,10 +4503,10 @@
         <v>18517</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -4537,10 +4531,10 @@
         <v>18517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -4609,13 +4603,13 @@
         <v>3490</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4637,13 +4631,13 @@
         <v>3490</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4652,13 @@
         <v>6245</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4686,13 +4680,13 @@
         <v>6245</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4740,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4758,13 +4752,13 @@
         <v>8891</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4786,13 +4780,13 @@
         <v>8891</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4801,13 @@
         <v>17452</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4835,13 +4829,13 @@
         <v>17452</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4889,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4907,13 +4901,13 @@
         <v>8358</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4935,13 +4929,13 @@
         <v>8358</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4950,13 @@
         <v>21040</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4984,13 +4978,13 @@
         <v>21040</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5056,13 +5050,13 @@
         <v>2567</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5084,13 +5078,13 @@
         <v>2567</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5099,13 @@
         <v>57535</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5133,13 +5127,13 @@
         <v>57535</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5199,13 @@
         <v>36247</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5233,13 +5227,13 @@
         <v>36247</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5248,13 @@
         <v>157381</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5282,13 +5276,13 @@
         <v>157381</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5336,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
